--- a/mySystem/mySystem/xls/PTV/0 SOP-MFG-105-R01A 制袋工序批生产记录封面-PTV.xlsx
+++ b/mySystem/mySystem/xls/PTV/0 SOP-MFG-105-R01A 制袋工序批生产记录封面-PTV.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\2017年工作\2017-生产指令台账\ERP\305，PTV生产记录\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\gitpro\newnew\mitcpro\mySystem\mySystem\xls\PTV\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
   <si>
     <r>
       <rPr>
@@ -31,37 +31,6 @@
         <charset val="134"/>
       </rPr>
       <t>生产日期</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="新宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>汇</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="新宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>总</t>
     </r>
   </si>
   <si>
@@ -202,19 +171,6 @@
         <charset val="134"/>
       </rPr>
       <t>生产数量</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="新宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>产品批号</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -409,10 +365,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>通用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>本页</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -469,135 +421,42 @@
   </si>
   <si>
     <r>
-      <t>SOP-MFG-303-R01A 2#</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>制袋工序生产指令</t>
+      <rPr>
+        <b/>
+        <sz val="22"/>
+        <color indexed="8"/>
+        <rFont val="新宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>制袋工序批生产记录</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="22"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-PTV     Batch production record</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">SOP-MFG-303-R02A  2# </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>制袋机开机前确认表</t>
-    </r>
+    <t>产品批号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">SOP-MFG-111-R01A  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>产品外包装记录</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">SOP-MFG-109-R01A  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>产品内包装记录</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>通用</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">SOP-MFG-105-R01 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>制袋工序批生产记录封面</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自动生成</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">SOP-MFG-102-R01A  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>生产领料记录</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">SOP-MFG-102-R02A  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>生产退料记录</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">QB-PA-PP-03-R01A </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>产品外观和尺寸检验记录</t>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="新宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>汇</t>
     </r>
     <r>
       <rPr>
@@ -606,264 +465,17 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>.xlsx</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">QB-PA-PP-03-R02A </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>产品热合强度检验记录</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>.xlsx</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PTV 内标签.xlsx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PTV 外标签.xlsx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">SOP-MFG-108-R01A </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>制袋岗位交接班记录</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>.xlsx</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>SOP-MFG-305-R04A PTV</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>生产台帐</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>.xlsx</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">SOP-MFG-110-R01A </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>清场记录</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>.xlsx</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">SOP-MFG-415-R01A </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>泄漏测试记录</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>.xlsx</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">SOP-MFG-416-R01A </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>超声波焊接记录</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>.xlsx</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">SOP-MFG-413-R01A </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>圆口焊接机运行记录</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>.xlsx</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">SOP-MFG-412-R01A </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>底封机运行记录</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>.xlsx</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">SOP-MFG-418-R01A </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>瓶口焊接机运行记录</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>.xlsx</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="22"/>
-        <color indexed="8"/>
-        <rFont val="新宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>制袋工序批生产记录</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="22"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>-PTV     Batch production record</t>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="新宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>总</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -986,7 +598,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="39">
+  <borders count="40">
     <border>
       <left/>
       <right/>
@@ -1462,13 +1074,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1487,9 +1110,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1550,36 +1170,18 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1589,6 +1191,45 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1625,44 +1266,20 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2030,8 +1647,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18:I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -2050,7 +1667,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -2059,392 +1676,317 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+    </row>
+    <row r="3" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="51" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="52"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="55"/>
+    </row>
+    <row r="4" spans="1:9" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" s="53"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="57"/>
+    </row>
+    <row r="5" spans="1:9" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="11"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="21" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="63" t="s">
-        <v>41</v>
-      </c>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
-    </row>
-    <row r="3" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="40" t="s">
+      <c r="D5" s="12"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="50"/>
+      <c r="H5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I5" s="62" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="11"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="58"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="29"/>
+    </row>
+    <row r="7" spans="1:9" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="11"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="60"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="31"/>
+    </row>
+    <row r="8" spans="1:9" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="11"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="59"/>
+      <c r="G8" s="60"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="31"/>
+    </row>
+    <row r="9" spans="1:9" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="11"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="59"/>
+      <c r="G9" s="60"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="31"/>
+    </row>
+    <row r="10" spans="1:9" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="11"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="59"/>
+      <c r="G10" s="60"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="31"/>
+    </row>
+    <row r="11" spans="1:9" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="11"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="59"/>
+      <c r="G11" s="60"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="31"/>
+    </row>
+    <row r="12" spans="1:9" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="11"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="59"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="31"/>
+    </row>
+    <row r="13" spans="1:9" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="11"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="60"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="31"/>
+    </row>
+    <row r="14" spans="1:9" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="11"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="59"/>
+      <c r="G14" s="60"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="31"/>
+    </row>
+    <row r="15" spans="1:9" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="11"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="60"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="31"/>
+    </row>
+    <row r="16" spans="1:9" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="11"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="59"/>
+      <c r="G16" s="60"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="31"/>
+    </row>
+    <row r="17" spans="1:9" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="11"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="61"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="25"/>
+    </row>
+    <row r="18" spans="1:9" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="11"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="37"/>
+      <c r="H18" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="I18" s="39" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="11"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="42"/>
+      <c r="H19" s="42"/>
+      <c r="I19" s="43"/>
+    </row>
+    <row r="20" spans="1:9" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="11"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="G20" s="37"/>
+      <c r="H20" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="I20" s="39" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="11"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="41"/>
+      <c r="G21" s="42"/>
+      <c r="H21" s="42"/>
+      <c r="I21" s="43"/>
+    </row>
+    <row r="22" spans="1:9" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="11"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22" s="37"/>
+      <c r="H22" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="I22" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="45" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="46"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="49"/>
-    </row>
-    <row r="4" spans="1:9" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="43" t="s">
-        <v>0</v>
-      </c>
-      <c r="G4" s="47"/>
-      <c r="H4" s="50"/>
-      <c r="I4" s="51"/>
-    </row>
-    <row r="5" spans="1:9" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="12">
-        <v>0</v>
-      </c>
-      <c r="B5" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="43" t="s">
-        <v>6</v>
-      </c>
-      <c r="G5" s="44"/>
-      <c r="H5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="12">
-        <v>1</v>
-      </c>
-      <c r="B6" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="21"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="34"/>
-    </row>
-    <row r="7" spans="1:9" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="12">
-        <v>2</v>
-      </c>
-      <c r="B7" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="20"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="38"/>
-    </row>
-    <row r="8" spans="1:9" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="12">
-        <v>3</v>
-      </c>
-      <c r="B8" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="38"/>
-    </row>
-    <row r="9" spans="1:9" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="12">
-        <v>4</v>
-      </c>
-      <c r="B9" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="37"/>
-      <c r="I9" s="38"/>
-    </row>
-    <row r="10" spans="1:9" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="12">
-        <v>5</v>
-      </c>
-      <c r="B10" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="13"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="36"/>
-      <c r="H10" s="37"/>
-      <c r="I10" s="38"/>
-    </row>
-    <row r="11" spans="1:9" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="12">
-        <v>6</v>
-      </c>
-      <c r="B11" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="13"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="37"/>
-      <c r="I11" s="38"/>
-    </row>
-    <row r="12" spans="1:9" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="12">
-        <v>7</v>
-      </c>
-      <c r="B12" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" s="20"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="37"/>
-      <c r="I12" s="38"/>
-    </row>
-    <row r="13" spans="1:9" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="12">
-        <v>8</v>
-      </c>
-      <c r="B13" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" s="20"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="37"/>
-      <c r="I13" s="38"/>
-    </row>
-    <row r="14" spans="1:9" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="12">
-        <v>9</v>
-      </c>
-      <c r="B14" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" s="20"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="37"/>
-      <c r="I14" s="38"/>
-    </row>
-    <row r="15" spans="1:9" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="12">
-        <v>10</v>
-      </c>
-      <c r="B15" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="C15" s="20"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="37"/>
-      <c r="I15" s="38"/>
-    </row>
-    <row r="16" spans="1:9" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="12">
-        <v>11</v>
-      </c>
-      <c r="B16" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="C16" s="20"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="37"/>
-      <c r="I16" s="38"/>
-    </row>
-    <row r="17" spans="1:9" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="12">
-        <v>12</v>
-      </c>
-      <c r="B17" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" s="13"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="26"/>
-    </row>
-    <row r="18" spans="1:9" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="12">
-        <v>13</v>
-      </c>
-      <c r="B18" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" s="13"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="54" t="s">
-        <v>1</v>
-      </c>
-      <c r="G18" s="56"/>
-      <c r="H18" s="56" t="s">
-        <v>2</v>
-      </c>
-      <c r="I18" s="58" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="12">
-        <v>14</v>
-      </c>
-      <c r="B19" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="C19" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19" s="13"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="55"/>
-      <c r="G19" s="61"/>
-      <c r="H19" s="61"/>
-      <c r="I19" s="62"/>
-    </row>
-    <row r="20" spans="1:9" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="12">
-        <v>15</v>
-      </c>
-      <c r="B20" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="C20" s="14"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="52" t="s">
-        <v>3</v>
-      </c>
-      <c r="G20" s="56"/>
-      <c r="H20" s="56" t="s">
-        <v>2</v>
-      </c>
-      <c r="I20" s="58" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="12">
-        <v>16</v>
-      </c>
-      <c r="B21" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="C21" s="20"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="60"/>
-      <c r="G21" s="61"/>
-      <c r="H21" s="61"/>
-      <c r="I21" s="62"/>
-    </row>
-    <row r="22" spans="1:9" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="12">
-        <v>17</v>
-      </c>
-      <c r="B22" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="C22" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="D22" s="17"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="52" t="s">
-        <v>4</v>
-      </c>
-      <c r="G22" s="56"/>
-      <c r="H22" s="56" t="s">
-        <v>2</v>
-      </c>
-      <c r="I22" s="58" t="s">
-        <v>19</v>
-      </c>
     </row>
     <row r="23" spans="1:9" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="15">
-        <v>18</v>
-      </c>
-      <c r="B23" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="C23" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="D23" s="16"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="53"/>
-      <c r="G23" s="57"/>
-      <c r="H23" s="57"/>
-      <c r="I23" s="59"/>
+      <c r="A23" s="14"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="38"/>
+      <c r="H23" s="38"/>
+      <c r="I23" s="40"/>
     </row>
     <row r="24" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="25" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="31">
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H4:I4"/>
     <mergeCell ref="F22:F23"/>
     <mergeCell ref="F18:F19"/>
     <mergeCell ref="G22:G23"/>
@@ -2457,13 +1999,6 @@
     <mergeCell ref="I18:I19"/>
     <mergeCell ref="G18:G19"/>
     <mergeCell ref="H18:H19"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="H4:I4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -2476,7 +2011,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
